--- a/lab3/Database.xlsx
+++ b/lab3/Database.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Medium" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="3" r:id="rId3"/>
+    <sheet name="DIc" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Easy!$B$1:$B$1</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>TOPIC</t>
   </si>
@@ -124,6 +125,15 @@
   </si>
   <si>
     <t>02/06/2023 14:47:53</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>06/06/2023 00:48:53</t>
+  </si>
+  <si>
+    <t>06/06/2023 00:49:38</t>
   </si>
 </sst>
 </file>
@@ -465,18 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -490,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -504,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -518,7 +528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -532,7 +542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -546,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -560,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -574,7 +584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -588,7 +598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -602,7 +612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -616,7 +626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -628,6 +638,20 @@
       </c>
       <c r="D11" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -640,15 +664,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -662,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -676,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -690,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -704,7 +728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -718,7 +742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -732,7 +756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -744,6 +768,20 @@
       </c>
       <c r="D7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -759,9 +797,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -778,4 +816,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab3/Database.xlsx
+++ b/lab3/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>TOPIC</t>
   </si>
@@ -134,6 +134,51 @@
   </si>
   <si>
     <t>06/06/2023 00:49:38</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>09/06/2023 00:11:59</t>
+  </si>
+  <si>
+    <t>09/06/2023 00:34:59</t>
+  </si>
+  <si>
+    <t>09/06/2023 00:36:56</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>09/06/2023 00:45:09</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>09/06/2023 08:17:19</t>
+  </si>
+  <si>
+    <t>09/06/2023 08:17:30</t>
+  </si>
+  <si>
+    <t>09/06/2023 08:17:59</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>09/06/2023 08:22:54</t>
+  </si>
+  <si>
+    <t>09/06/2023 08:26:54</t>
+  </si>
+  <si>
+    <t>09/06/2023 09:34:36</t>
+  </si>
+  <si>
+    <t>09/06/2023 09:55:54</t>
   </si>
 </sst>
 </file>
@@ -475,18 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -500,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -514,7 +559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -528,7 +573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -542,7 +587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -556,7 +601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -570,7 +615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -584,7 +629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -598,7 +643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -612,7 +657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -626,7 +671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -640,7 +685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -652,6 +697,62 @@
       </c>
       <c r="D12" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -664,15 +765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -686,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -700,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -714,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -728,7 +829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -742,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -756,7 +857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -770,7 +871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -782,6 +883,48 @@
       </c>
       <c r="D8" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -791,15 +934,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -811,6 +954,62 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +1023,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
